--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_beg.xlsx
@@ -2436,7 +2436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mephisto"]  That has nothing to do with which side you take. While you keep talking about these mundane "duties," you know just how our fellow peoples are being treated.
+    <t xml:space="preserve">[name="Mephisto"]  That has nothing to do with which side you take. While you keep talking about these mundane 'duties,' you know just how our fellow peoples are being treated.
 </t>
   </si>
   <si>
@@ -2532,7 +2532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  "As terror rises, her eyes become blind…"
+    <t xml:space="preserve">[name="???"]  'As terror rises, her eyes become blind…'
 </t>
   </si>
   <si>
@@ -2544,7 +2544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  "...As the tears dry, she weeps silently."
+    <t xml:space="preserve">[name="???"]  '...As the tears dry, she weeps silently.'
 </t>
   </si>
   <si>
@@ -2720,7 +2720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   Call Sign: "Bad Guy", 40m above L.G.D. Headquarters, Upper Lungmen
+    <t xml:space="preserve">[name=""]   Call Sign: 'Bad Guy', 40m above L.G.D. Headquarters, Upper Lungmen
 </t>
   </si>
   <si>
@@ -2912,7 +2912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  Yen has an old saying, "to catch bandits, you must first catch the ringleader."
+    <t xml:space="preserve">[name="Ch'en"]  Yen has an old saying, 'to catch bandits, you must first catch the ringleader.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-10_beg.xlsx
@@ -2532,7 +2532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  'As terror rises, her eyes become blind…'
+    <t xml:space="preserve">[name="???"]  'As terror rises, her eyes become blind...'
 </t>
   </si>
   <si>
@@ -2716,7 +2716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   4:21 AM \ Overcast
+    <t xml:space="preserve">[name=""]   4:21 A.M. \ Overcast
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Underestood. I’ll issue commands from the rear.", values="1")]
+    <t xml:space="preserve">[Decision(options="Underestood. I'll issue commands from the rear.", values="1")]
 </t>
   </si>
   <si>
@@ -2980,7 +2980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’ll trust you too.", values="1")]
+    <t xml:space="preserve">[Decision(options="I'll trust you too.", values="1")]
 </t>
   </si>
   <si>
